--- a/input/Lewis World Genera List 26 JULY 2021.xlsx
+++ b/input/Lewis World Genera List 26 JULY 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99AECF66-C6A4-4333-ACB9-864398DF492A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C3FEC34-E627-46F7-9AD7-F494C89589C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1602,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D225" sqref="D225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.5"/>
